--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111320.xlsx_with_dialog_acts.xlsx
@@ -2113,12 +2113,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7867,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8035,12 +8035,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8329,12 +8329,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8791,12 +8791,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10727,12 +10727,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10979,12 +10979,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12369,12 +12369,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12453,12 +12453,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12537,12 +12537,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12579,12 +12579,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13645,12 +13645,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13765,12 +13765,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14285,12 +14285,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15045,12 +15045,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15485,12 +15485,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
